--- a/biology/Botanique/Liste_de_graines_à_faire_germer/Liste_de_graines_à_faire_germer.xlsx
+++ b/biology/Botanique/Liste_de_graines_à_faire_germer/Liste_de_graines_à_faire_germer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines à faire germer sont des graines pouvant être consommées sous la forme de jeunes pousses, très tôt après leur germination. Elles sont très nombreuses et appartiennent à des familles botaniques différentes.
-La liste ci-dessous, non exhaustive, cite le ou les noms vernaculaires des espèces les plus couramment utilisées, suivis de leur nom scientifique, classées par familles[1].
+La liste ci-dessous, non exhaustive, cite le ou les noms vernaculaires des espèces les plus couramment utilisées, suivis de leur nom scientifique, classées par familles.
 Certaines espèces présentent des qualités médicinales, d'autres sont aromatiques et peuvent servir à parfumer des plats.
-Quelques espèces sont mucilagineuses telles que le basilic, la cameline, le chia, le cresson, la cressonnette, le lin, la moutarde, le pourpier, la perille, la roquette. Des précautions doivent être prises afin d'éviter leur pourrissement dû au développement rapide de matière gélatineuse empêchant la respiration des plantules[2].
+Quelques espèces sont mucilagineuses telles que le basilic, la cameline, le chia, le cresson, la cressonnette, le lin, la moutarde, le pourpier, la perille, la roquette. Des précautions doivent être prises afin d'éviter leur pourrissement dû au développement rapide de matière gélatineuse empêchant la respiration des plantules.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Alliaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ail, Allium sativum
 Oignon, Allium cepa
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Amaranthaceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amaranthe, Amaranthus sp.</t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Apiaceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Céleri, Apium graveolens
 Carvi, Carum carvi
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Asteraceae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chicorée, Cichorium sp.
 Tournesol, Helianthus annuus</t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Brassicaceae</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brocoli, Brassica oleracea var. italica
 Cresson alénois, Lepidium sativum
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +705,9 @@
           <t>Cannabinaceae</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Chanvre, Cannabis sativa</t>
         </is>
@@ -695,7 +719,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +737,9 @@
           <t>Chenopodiaceae</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Quinoa, Chenopodium quinoa</t>
         </is>
@@ -725,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,7 +769,9 @@
           <t>Fabaceae</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ajfalfa, luzerne, Medicago sativa
 Fenugrec, Trigonella foenum-graecum
@@ -764,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -782,7 +810,9 @@
           <t>Lamiaceae</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Basilic, Ocimum basilicum
 Chia, Salvia hispanica
@@ -796,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -814,7 +844,9 @@
           <t>Linaceae</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lin, Linum usitatissimum</t>
         </is>
@@ -826,7 +858,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,7 +876,9 @@
           <t>Pedaliaceae</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Sésame, Sesamum indicum</t>
         </is>
@@ -856,7 +890,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -874,7 +908,9 @@
           <t>Poacées</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Avoine, Avena sativa
 Blé, Triticum aestivum
@@ -892,7 +928,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -910,7 +946,9 @@
           <t>Polygonaceae</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Sarrasin, Fagopyrum esculentum</t>
         </is>
@@ -922,7 +960,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,7 +978,9 @@
           <t>Portulacaceae</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Pourpier potager, Portulaca oleracea</t>
         </is>
@@ -952,7 +992,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -970,7 +1010,9 @@
           <t>Ranonculaceae</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Nigelle, Nigella sativa</t>
         </is>
@@ -982,7 +1024,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,7 +1042,9 @@
           <t>Rosaceae</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Amande, Prunus dulcis</t>
         </is>
@@ -1012,7 +1056,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1030,7 +1074,9 @@
           <t>Urticaceae</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Grande ortie, Urtica dioica</t>
         </is>
@@ -1042,7 +1088,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_graines_%C3%A0_faire_germer</t>
+          <t>Liste_de_graines_à_faire_germer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1060,7 +1106,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Des précautions doivent être prises afin d'éviter le développement de la bactérie Escherichia coli.
 Certaines plantes sont à éviter, en particulier dans la famille des Solanacées : les plantules contiennent de la solanine, qui est toxique.
